--- a/data/8.names_withsynonyms_withoutweights_withbasevectors.xlsx
+++ b/data/8.names_withsynonyms_withoutweights_withbasevectors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Agents-projects\poc-names-customembeddings\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Agents-projects\custom_embeddings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCAF5FC-C39B-49AB-80E3-F83421101178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23D2CA-D661-4A9F-B325-B1644F4A8322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="4">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
@@ -642,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -693,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="4">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="4">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
